--- a/data/trans_camb/IP18A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>4,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,8</t>
+          <t>-18,89; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,98</t>
+          <t>-17,03; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,86</t>
+          <t>-20,76; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,4</t>
+          <t>0,0; 27,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 61,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,44</t>
+          <t>-11,34; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,14</t>
+          <t>-4,58; 9,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,88</t>
+          <t>-4,49; 26,11</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>160,68%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1591,69%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>264,38%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>533,72%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1931,02%</t>
+          <t>175,66%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>3,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,58</t>
+          <t>-0,76; 1,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,07</t>
+          <t>-0,5; 1,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,0</t>
+          <t>1,33; 13,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,09</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,41</t>
+          <t>0,59; 3,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,94</t>
+          <t>-0,21; 1,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,66</t>
+          <t>0,23; 2,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,37</t>
+          <t>1,11; 9,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>160,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>1591,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-37,34%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-66,78%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,03%</t>
+          <t>264,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-36,14%</t>
+          <t>533,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>1931,02%</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-86,62; 266,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,86</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 0,0</t>
+          <t>-0,73; 1,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 0,0</t>
+          <t>0,96; 7,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 0,0</t>
+          <t>0,9; 20,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 3,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,76</t>
+          <t>0,44; 3,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,74</t>
+          <t>0,0; 17,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 0,0</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 9,87</t>
+          <t>0,96; 4,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 26,11</t>
+          <t>1,93; 15,49</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>901,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>2181,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>365,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>1256,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>175,66%</t>
+          <t>3482,94%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,73</t>
+          <t>-1,53; 1,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,25</t>
+          <t>-1,16; 2,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,9; 20,98</t>
+          <t>-2,33; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,62</t>
+          <t>-2,47; 1,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,99</t>
+          <t>-2,89; 0,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,14</t>
+          <t>-1,88; 9,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>-1,48; 0,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,3</t>
+          <t>-1,59; 0,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 15,49</t>
+          <t>-1,29; 3,37</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>901,8%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2181,51%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-66,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>53,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>365,34%</t>
+          <t>-23,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1256,86%</t>
+          <t>-36,14%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3482,94%</t>
+          <t>-4,0%</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,62; 266,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 240,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">

--- a/data/trans_camb/IP18A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 0,0</t>
+          <t>-22,96; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 0,0</t>
+          <t>-22,72; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 0,0</t>
+          <t>-21,76; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,76</t>
+          <t>0,0; 27,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 0,0</t>
+          <t>-11,2; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 9,87</t>
+          <t>-5,46; 9,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 26,11</t>
+          <t>-4,54; 25,92</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,13</t>
+          <t>1,18; 7,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,37</t>
+          <t>-3,49; 1,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,0</t>
+          <t>-4,68; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 16,72</t>
+          <t>-2,04; 21,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,35</t>
+          <t>-0,07; 3,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,62</t>
+          <t>-1,61; 0,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,83</t>
+          <t>-1,02; 8,55</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,79; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1117,27 +1117,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,8</t>
+          <t>-0,76; 1,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,98</t>
+          <t>-0,76; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,86</t>
+          <t>1,39; 15,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,4</t>
+          <t>0,61; 3,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,44</t>
+          <t>-0,23; 1,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,14</t>
+          <t>0,25; 2,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,88</t>
+          <t>1,09; 9,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,73</t>
+          <t>-0,73; 1,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,25</t>
+          <t>1,04; 7,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 20,98</t>
+          <t>0,99; 25,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,62</t>
+          <t>0,43; 3,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,99</t>
+          <t>0,44; 3,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,14</t>
+          <t>0,0; 16,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>-0,12; 1,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,3</t>
+          <t>0,94; 4,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 15,49</t>
+          <t>2,14; 18,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,58</t>
+          <t>-1,55; 1,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,07</t>
+          <t>-1,16; 2,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,0</t>
+          <t>-2,72; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,09</t>
+          <t>-2,49; 1,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,41</t>
+          <t>-2,68; 0,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,02</t>
+          <t>-1,73; 8,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,94</t>
+          <t>-1,37; 0,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,66</t>
+          <t>-1,47; 0,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,37</t>
+          <t>-1,36; 4,27</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-86,62; 266,84</t>
+          <t>-86,25; 324,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,02</t>
+          <t>-100,0; 198,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,46</t>
+          <t>-0,25; 1,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,94</t>
+          <t>0,05; 1,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,57</t>
+          <t>1,33; 8,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,02</t>
+          <t>-0,57; 1,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,48</t>
+          <t>-0,25; 1,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,28</t>
+          <t>0,19; 5,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,98</t>
+          <t>-0,19; 0,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,36</t>
+          <t>0,08; 1,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,92</t>
+          <t>1,42; 6,15</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 697,45</t>
+          <t>-36,18; 579,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 732,12</t>
+          <t>-17,47; 1013,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>81,49; 3394,64</t>
+          <t>105,27; 3302,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 378,1</t>
+          <t>-63,31; 415,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 642,13</t>
+          <t>-35,59; 622,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 2108,11</t>
+          <t>-27,45; 1765,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 297,86</t>
+          <t>-25,99; 296,07</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 386,27</t>
+          <t>-2,07; 395,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>142,57; 1431,72</t>
+          <t>146,33; 1574,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 0,0</t>
+          <t>-25,21; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 0,0</t>
+          <t>-21,98; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 0,0</t>
+          <t>-26,35; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,11</t>
+          <t>0,0; 33,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,74</t>
+          <t>0,0; 62,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 0,0</t>
+          <t>-13,67; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 9,92</t>
+          <t>-4,55; 9,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 25,92</t>
+          <t>-4,58; 25,79</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,07</t>
+          <t>1,18; 6,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,0</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,37</t>
+          <t>-3,38; 1,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 0,0</t>
+          <t>-4,3; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 21,33</t>
+          <t>-2,14; 18,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,38</t>
+          <t>-0,1; 3,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,61</t>
+          <t>-1,68; 0,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,55</t>
+          <t>-0,96; 8,13</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,79; —</t>
+          <t>-52,93; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,27 +1117,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,81</t>
+          <t>-0,76; 1,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,02</t>
+          <t>-0,72; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 15,31</t>
+          <t>1,26; 14,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,41</t>
+          <t>0,58; 3,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,4</t>
+          <t>-0,2; 1,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,14</t>
+          <t>0,21; 2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,78</t>
+          <t>1,03; 9,38</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,39</t>
+          <t>-0,73; 1,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,24</t>
+          <t>0,88; 7,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 25,04</t>
+          <t>1,0; 26,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,65</t>
+          <t>0,43; 3,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,75</t>
+          <t>0,44; 4,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,36</t>
+          <t>0,0; 16,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,78</t>
+          <t>0,04; 1,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,51</t>
+          <t>0,98; 4,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 18,4</t>
+          <t>2,03; 15,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,58</t>
+          <t>-1,54; 1,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,01</t>
+          <t>-1,16; 2,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 0,0</t>
+          <t>-2,67; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,17</t>
+          <t>-2,44; 1,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,46</t>
+          <t>-2,95; 0,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 8,13</t>
+          <t>-1,65; 9,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,96</t>
+          <t>-1,39; 0,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,68</t>
+          <t>-1,67; 0,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,27</t>
+          <t>-1,38; 4,15</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-86,25; 324,65</t>
+          <t>-84,84; 269,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 198,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,42</t>
+          <t>-0,26; 1,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,95</t>
+          <t>-0,03; 1,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,41</t>
+          <t>1,57; 9,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,01</t>
+          <t>-0,62; 1,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,49</t>
+          <t>-0,36; 1,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,65</t>
+          <t>0,2; 5,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,98</t>
+          <t>-0,22; 0,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,35</t>
+          <t>0,11; 1,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,15</t>
+          <t>1,31; 6,21</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 579,81</t>
+          <t>-39,79; 562,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 1013,97</t>
+          <t>-22,74; 790,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>105,27; 3302,63</t>
+          <t>90,43; 3472,62</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 415,36</t>
+          <t>-67,66; 374,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 622,39</t>
+          <t>-47,56; 499,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 1765,15</t>
+          <t>-24,46; 1858,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 296,07</t>
+          <t>-32,65; 283,88</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 395,12</t>
+          <t>6,95; 396,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>146,33; 1574,64</t>
+          <t>151,81; 1548,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A05-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,86</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 0,0</t>
+          <t>-2,86; 1,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 0,0</t>
+          <t>-1,82; 3,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 0,0</t>
+          <t>-1,17; 19,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 4,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,91</t>
+          <t>-2,97; 0,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,82</t>
+          <t>-4,43; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 0,0</t>
+          <t>-0,89; 2,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 9,33</t>
+          <t>-1,44; 1,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 25,79</t>
+          <t>-0,8; 9,99</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-50,68%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>484,6%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>285,27%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-35,31%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>175,66%</t>
+          <t>217,07%</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,25; 946,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>3,87</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,48</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,95</t>
+          <t>0,59; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,37</t>
+          <t>-0,76; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,0</t>
+          <t>-0,5; 1,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 18,65</t>
+          <t>1,38; 14,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,54</t>
+          <t>-0,21; 1,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,62</t>
+          <t>0,23; 2,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,13</t>
+          <t>1,19; 10,03</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-50,88%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>160,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>195,02%</t>
+          <t>1590,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>227,22%</t>
+          <t>264,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-53,07%</t>
+          <t>533,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>173,46%</t>
+          <t>1949,65%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,93; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>6,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,84</t>
+          <t>0,43; 3,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,0</t>
+          <t>0,44; 3,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 14,81</t>
+          <t>0,0; 15,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>-0,73; 1,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,6</t>
+          <t>0,96; 7,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 20,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,52</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,11</t>
+          <t>0,96; 4,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,38</t>
+          <t>1,78; 15,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>160,68%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1591,69%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>901,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2097,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>264,38%</t>
+          <t>365,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>533,72%</t>
+          <t>1256,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1931,02%</t>
+          <t>3332,98%</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,47</t>
+          <t>-2,47; 1,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,04</t>
+          <t>-2,89; 0,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 26,63</t>
+          <t>-1,88; 9,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,54</t>
+          <t>-1,53; 1,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,25</t>
+          <t>-1,16; 2,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,13</t>
+          <t>-2,33; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,94</t>
+          <t>-1,48; 0,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,35</t>
+          <t>-1,59; 0,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 15,87</t>
+          <t>-1,29; 3,33</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>901,8%</t>
+          <t>-66,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2181,51%</t>
+          <t>55,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>365,34%</t>
+          <t>-23,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1256,86%</t>
+          <t>-36,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3482,94%</t>
+          <t>-5,37%</t>
         </is>
       </c>
     </row>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,62; 266,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 240,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>3,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,48</t>
+          <t>-0,65; 1,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,03</t>
+          <t>-0,25; 1,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,0</t>
+          <t>0,27; 6,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,09</t>
+          <t>-0,18; 1,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,41</t>
+          <t>-0,04; 1,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 9,0</t>
+          <t>1,37; 9,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,92</t>
+          <t>-0,24; 0,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,66</t>
+          <t>0,08; 1,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 4,15</t>
+          <t>1,39; 5,87</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>365,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-37,34%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-66,78%</t>
+          <t>151,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>669,03%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-23,03%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-36,14%</t>
+          <t>118,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>527,48%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,21; 378,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,36; 642,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,99; 2083,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,26; 697,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,92; 732,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,9; 3292,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-84,84; 269,1</t>
+          <t>-31,19; 297,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 386,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>141,78; 1424,17</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 1,34</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 1,95</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 9,09</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 1,0</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 1,44</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 5,36</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 0,96</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 1,38</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 6,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>97,26%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>151,78%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>683,05%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>36,36%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>86,94%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>363,78%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>66,28%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>118,57%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>531,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-39,79; 562,14</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-22,74; 790,34</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>90,43; 3472,62</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-67,66; 374,22</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-47,56; 499,39</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-24,46; 1858,32</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-32,65; 283,88</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 396,0</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>151,81; 1548,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
